--- a/data/sql_generate_result.xlsx
+++ b/data/sql_generate_result.xlsx
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.3818181818181818</v>
       </c>
     </row>
     <row r="3">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.3818181818181818</v>
       </c>
     </row>
     <row r="4">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.3818181818181818</v>
       </c>
     </row>
     <row r="5">
@@ -554,11 +554,11 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[('机械', 516)]</t>
+          <t>[('机械',)]</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.3818181818181818</v>
       </c>
     </row>
     <row r="6">
@@ -583,7 +583,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.3818181818181818</v>
       </c>
     </row>
     <row r="7">
@@ -608,7 +608,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.3818181818181818</v>
       </c>
     </row>
     <row r="8">
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.3818181818181818</v>
       </c>
     </row>
     <row r="9">
@@ -654,11 +654,11 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('基础化工',)]</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.3818181818181818</v>
       </c>
     </row>
     <row r="10">
@@ -683,7 +683,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.3818181818181818</v>
       </c>
     </row>
     <row r="11">
@@ -708,7 +708,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.3818181818181818</v>
       </c>
     </row>
     <row r="12">
@@ -733,7 +733,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>0.3818181818181818</v>
       </c>
     </row>
     <row r="13">
@@ -754,11 +754,11 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[('上海光大证券资产管理有限公司', 1.0335)]</t>
+          <t>[('上海光大证券资产管理有限公司', 1.03)]</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>0.3818181818181818</v>
       </c>
     </row>
     <row r="14">
@@ -783,7 +783,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.3818181818181818</v>
       </c>
     </row>
     <row r="15">
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.3818181818181818</v>
       </c>
     </row>
     <row r="16">
@@ -829,11 +829,11 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[('688358', '祥生医疗'), ('600030', '中信证券')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.3818181818181818</v>
       </c>
     </row>
     <row r="17">
@@ -858,7 +858,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.3818181818181818</v>
       </c>
     </row>
     <row r="18">
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.3818181818181818</v>
       </c>
     </row>
     <row r="19">
@@ -904,11 +904,11 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[('300699',)]</t>
+          <t>no such table: �基金基本信息</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.3818181818181818</v>
       </c>
     </row>
     <row r="20">
@@ -929,11 +929,11 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[('纺织制造',), ('纺织制造',)]</t>
+          <t>[('纺织制造',)]</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.3818181818181818</v>
       </c>
     </row>
     <row r="21">
@@ -958,7 +958,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.3818181818181818</v>
       </c>
     </row>
     <row r="22">
@@ -979,11 +979,11 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>[('同业存单',)]</t>
+          <t>no such table: 崆基本信息</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>0.3818181818181818</v>
       </c>
     </row>
     <row r="23">
@@ -1004,11 +1004,11 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>[(None,)]</t>
+          <t>[(70.0,)]</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>0.3818181818181818</v>
       </c>
     </row>
     <row r="24">
@@ -1029,11 +1029,11 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>no such column: T2.市值</t>
+          <t>no such column: t1.股票代码</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>0.3818181818181818</v>
       </c>
     </row>
     <row r="25">
@@ -1054,11 +1054,11 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>[(0.44166666666666665,)]</t>
+          <t>[(0.44,)]</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.3818181818181818</v>
       </c>
     </row>
     <row r="26">
@@ -1083,7 +1083,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>0.3818181818181818</v>
       </c>
     </row>
     <row r="27">
@@ -1104,11 +1104,11 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>no such column: T2.持债市值占基金资产净值比</t>
+          <t>[('银行', 392.8064)]</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>0.3818181818181818</v>
       </c>
     </row>
     <row r="28">
@@ -1133,7 +1133,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>0.3818181818181818</v>
       </c>
     </row>
     <row r="29">
@@ -1154,11 +1154,11 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>no such column: 管理人</t>
+          <t>[(0,)]</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>0.3818181818181818</v>
       </c>
     </row>
     <row r="30">
@@ -1183,7 +1183,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>0.3818181818181818</v>
       </c>
     </row>
     <row r="31">
@@ -1204,11 +1204,11 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>[(0, None)]</t>
+          <t>[(1102, 1514090034027.42)]</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>0.3818181818181818</v>
       </c>
     </row>
     <row r="32">
@@ -1229,11 +1229,11 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>[(0,)]</t>
+          <t>[(4,)]</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>0.3818181818181818</v>
       </c>
     </row>
     <row r="33">
@@ -1258,7 +1258,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>0.3818181818181818</v>
       </c>
     </row>
     <row r="34">
@@ -1283,7 +1283,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>0.3818181818181818</v>
       </c>
     </row>
     <row r="35">
@@ -1304,11 +1304,11 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>no such function: YEAR</t>
+          <t>[(0,)]</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>0.3818181818181818</v>
       </c>
     </row>
     <row r="36">
@@ -1333,7 +1333,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>0.3818181818181818</v>
       </c>
     </row>
     <row r="37">
@@ -1358,7 +1358,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>0.3818181818181818</v>
       </c>
     </row>
     <row r="38">
@@ -1383,7 +1383,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>0.3818181818181818</v>
       </c>
     </row>
     <row r="39">
@@ -1408,7 +1408,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>0.3818181818181818</v>
       </c>
     </row>
     <row r="40">
@@ -1433,7 +1433,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>0.3818181818181818</v>
       </c>
     </row>
     <row r="41">
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>0.3818181818181818</v>
       </c>
     </row>
     <row r="42">
@@ -1479,11 +1479,11 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>[(294,)]</t>
+          <t>[(311,)]</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>0.3818181818181818</v>
       </c>
     </row>
     <row r="43">
@@ -1508,7 +1508,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>0.3818181818181818</v>
       </c>
     </row>
     <row r="44">
@@ -1533,7 +1533,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>0.3818181818181818</v>
       </c>
     </row>
     <row r="45">
@@ -1558,7 +1558,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>0.3818181818181818</v>
       </c>
     </row>
     <row r="46">
@@ -1583,7 +1583,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>0.3818181818181818</v>
       </c>
     </row>
     <row r="47">
@@ -1608,7 +1608,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>0.3818181818181818</v>
       </c>
     </row>
     <row r="48">
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>0.3818181818181818</v>
       </c>
     </row>
     <row r="49">
@@ -1658,7 +1658,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>0.3818181818181818</v>
       </c>
     </row>
     <row r="50">
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>0.3818181818181818</v>
       </c>
     </row>
     <row r="51">
@@ -1704,11 +1704,11 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>no such column: report_period_initial_total_shares</t>
+          <t>no such column: report_period_total_subscription</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>0.3818181818181818</v>
       </c>
     </row>
     <row r="52">
@@ -1729,11 +1729,11 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>[(0,)]</t>
+          <t>[(7,)]</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>0.3818181818181818</v>
       </c>
     </row>
     <row r="53">
@@ -1758,7 +1758,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>0.3818181818181818</v>
       </c>
     </row>
     <row r="54">
@@ -1783,7 +1783,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>0.3818181818181818</v>
       </c>
     </row>
     <row r="55">
@@ -1804,11 +1804,11 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>[(10,)]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>0.3818181818181818</v>
       </c>
     </row>
     <row r="56">
@@ -1833,7 +1833,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>0.3818181818181818</v>
       </c>
     </row>
   </sheetData>
